--- a/Experimental Data/Diode Is measurement.xlsx
+++ b/Experimental Data/Diode Is measurement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void-Study\Non-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void-Study\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382F08D-6803-4DB3-82CB-E53C7FFA34DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DB146-433D-4FF5-B31F-1742AB1F8B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{D4FCBA09-BB64-41A5-B259-4D3C7B13D48E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Temperature (degC)</t>
   </si>
@@ -49,6 +48,15 @@
   </si>
   <si>
     <t>Temperature (K)</t>
+  </si>
+  <si>
+    <t>Resistor Val:</t>
+  </si>
+  <si>
+    <t>highlighted values are calculated using resistor voltage drop</t>
+  </si>
+  <si>
+    <t>K^-1</t>
   </si>
 </sst>
 </file>
@@ -72,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,9 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,44 +248,14 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$44</c:f>
+              <c:f>Sheet1!$D$2:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>366.15</c:v>
                 </c:pt>
@@ -305,16 +291,67 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>407.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>296.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>313.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>313.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>319.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>328.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>328.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>336.45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>336.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>345.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>353.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>353.34999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>358.29999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$B$64</c:f>
+              <c:f>Sheet1!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>14.7</c:v>
                 </c:pt>
@@ -350,6 +387,57 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>216.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8366533864541832E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8565737051792827E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1344621513944223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13505976095617531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26772908366533865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27450199203187253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45219123505976094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,73 +479,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$25:$H$57</c:f>
+              <c:f>Sheet1!$H$2:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>366.65</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.04999999999995</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>378.54999999999995</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>386.45</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>394.84999999999997</c:v>
+                  <c:v>83.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>407.34999999999997</c:v>
+                  <c:v>181.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>4.342629482071713E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.10258964143426295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.20836653386454182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.34342629482071713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$25:$F$57</c:f>
+              <c:f>Sheet1!$F$4:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>181.3</c:v>
-                </c:pt>
+                <c:ptCount val="54"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -498,70 +577,61 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$25:$M$47</c:f>
+              <c:f>Sheet1!$M$2:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>366.75</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.15</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>378.65</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395.04999999999995</c:v>
+                  <c:v>63.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>407.34999999999997</c:v>
+                  <c:v>143.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>1.8924302788844622E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>4.8505976095617527E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.10219123505976095</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.16772908366533865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$K$60</c:f>
+              <c:f>Sheet1!$K$2:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143.5</c:v>
-                </c:pt>
+                <c:ptCount val="59"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -587,7 +657,7 @@
         <c:axId val="449767488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="350"/>
+          <c:min val="280"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -711,7 +781,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -913,7 +983,675 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Is vs T^-1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K^-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>2.7311211252219036E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.729630135116692E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6899798251513113E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6820437173125924E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6430553720100439E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6298487836949377E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5903380391141045E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5763235862424324E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5345330122924854E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5192089683839275E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4548913710568309E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4536866642129803E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3778078027360248E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3766672294445383E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2727867779414176E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2727867779414176E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1892840057407119E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1862354628007013E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1264655307175243E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1264655307175243E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0473868657626088E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0464584920030465E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.972209838014564E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9704440813901681E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8998115122517041E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8981307056948273E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8308563340410475E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8300551860761286E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7909572983533357E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8366533864541832E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8565737051792827E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1344621513944223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13505976095617531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26772908366533865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27450199203187253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45219123505976094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E18-4B36-B02D-CCDFA1B72F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1418814048"/>
+        <c:axId val="1418815008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1418814048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.0000000000000005E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature^-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (K^-1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418815008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1418815008"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Is (uA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418814048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1469,20 +2207,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618209</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>8931</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>92351</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>211894</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>4529</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>231739</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>54138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,8 +2765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8995355" y="798197"/>
-          <a:ext cx="3581481" cy="2720126"/>
+          <a:off x="21406981" y="6554927"/>
+          <a:ext cx="3567473" cy="2719076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,16 +2777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>630172</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>94232</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>64626</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>195433</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9090</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>433558</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>108308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1561,8 +2815,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3521290" y="452820"/>
-          <a:ext cx="4242035" cy="3142152"/>
+          <a:off x="17289001" y="5908451"/>
+          <a:ext cx="4238463" cy="3129545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,16 +2827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>597824</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>71312</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>32279</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514328</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>172673</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>494487</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1611,8 +2865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="219645" y="808079"/>
-          <a:ext cx="3149361" cy="2393004"/>
+          <a:off x="22045789" y="2296944"/>
+          <a:ext cx="3137454" cy="2396973"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,15 +2877,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1072198</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99855</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>74368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200028</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>130577</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>140073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1660,8 +2914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12909141" y="530278"/>
-          <a:ext cx="3472293" cy="3277649"/>
+          <a:off x="17222402" y="10177446"/>
+          <a:ext cx="3458986" cy="3255330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,7 +2933,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>549086</xdr:colOff>
+      <xdr:colOff>549088</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>103093</xdr:rowOff>
     </xdr:to>
@@ -1721,16 +2975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58272</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>113997</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1132053</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>565296</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>46763</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>917</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>24002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1750,6 +3004,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123388</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CA7779-E929-0474-86A4-2BD0E18426E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2075,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9BAC6B-737D-4814-BA59-C24AE2A987FC}">
-  <dimension ref="A24:M36"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="B46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2090,424 +3380,1008 @@
     <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>65.8</v>
       </c>
-      <c r="B25">
+      <c r="B2">
         <v>14.7</v>
       </c>
-      <c r="C25">
+      <c r="C2">
         <v>93</v>
       </c>
-      <c r="D25">
-        <f>C25+273.15</f>
+      <c r="D2">
+        <f>C2+273.15</f>
         <v>366.15</v>
       </c>
-      <c r="E25">
+      <c r="E2">
+        <f>1/D2</f>
+        <v>2.7311211252219036E-3</v>
+      </c>
+      <c r="F2">
+        <f>502000</f>
+        <v>502000</v>
+      </c>
+      <c r="G2">
         <v>30.28</v>
       </c>
-      <c r="F25">
+      <c r="H2">
         <v>12.1</v>
       </c>
-      <c r="G25">
+      <c r="I2">
         <v>93.5</v>
       </c>
-      <c r="H25">
-        <f>G25+273.15</f>
+      <c r="J2">
+        <f>I2+273.15</f>
         <v>366.65</v>
       </c>
-      <c r="J25">
+      <c r="L2">
         <v>10.15</v>
       </c>
-      <c r="K25">
+      <c r="M2">
         <v>7.9</v>
       </c>
-      <c r="L25">
+      <c r="N2">
         <v>93.6</v>
       </c>
-      <c r="M25">
-        <f>L25+273.15</f>
+      <c r="O2">
+        <f>N2+273.15</f>
         <v>366.75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>65.8</v>
       </c>
-      <c r="B26">
+      <c r="B3">
         <v>14.9</v>
       </c>
-      <c r="C26">
+      <c r="C3">
         <v>93.2</v>
       </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D36" si="0">C26+273.15</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D30" si="0">C3+273.15</f>
         <v>366.34999999999997</v>
       </c>
-      <c r="E26">
+      <c r="E3">
+        <f t="shared" ref="E3:E30" si="1">1/D3</f>
+        <v>2.729630135116692E-3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>30.02</v>
       </c>
-      <c r="F26">
+      <c r="H3">
         <v>17.8</v>
       </c>
-      <c r="G26">
+      <c r="I3">
         <v>98.9</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H36" si="1">G26+273.15</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="2">I3+273.15</f>
         <v>372.04999999999995</v>
       </c>
-      <c r="J26">
+      <c r="L3">
         <v>9.9700000000000006</v>
       </c>
-      <c r="K26">
+      <c r="M3">
         <v>11.9</v>
       </c>
-      <c r="L26">
+      <c r="N3">
         <v>99</v>
       </c>
-      <c r="M26">
-        <f t="shared" ref="M26:M36" si="2">L26+273.15</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O15" si="3">N3+273.15</f>
         <v>372.15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>65.8</v>
       </c>
-      <c r="B27">
+      <c r="B4">
         <v>21.9</v>
       </c>
-      <c r="C27">
+      <c r="C4">
         <v>98.6</v>
       </c>
-      <c r="D27">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>371.75</v>
       </c>
-      <c r="E27">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.6899798251513113E-3</v>
+      </c>
+      <c r="G4">
         <v>29.92</v>
       </c>
-      <c r="F27">
+      <c r="H4">
         <v>28</v>
       </c>
-      <c r="G27">
+      <c r="I4">
         <v>105.4</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
+      <c r="J4">
+        <f t="shared" si="2"/>
         <v>378.54999999999995</v>
       </c>
-      <c r="J27">
+      <c r="L4">
         <v>9.7200000000000006</v>
       </c>
-      <c r="K27">
+      <c r="M4">
         <v>19.2</v>
       </c>
-      <c r="L27">
+      <c r="N4">
         <v>105.5</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
+      <c r="O4">
+        <f t="shared" si="3"/>
         <v>378.65</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>65.8</v>
       </c>
-      <c r="B28">
+      <c r="B5">
         <v>23.8</v>
       </c>
-      <c r="C28">
+      <c r="C5">
         <v>99.7</v>
       </c>
-      <c r="D28">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>372.84999999999997</v>
       </c>
-      <c r="E28">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.6820437173125924E-3</v>
+      </c>
+      <c r="G5">
         <v>29.98</v>
       </c>
-      <c r="F28">
+      <c r="H5">
         <v>48.4</v>
       </c>
-      <c r="G28">
+      <c r="I5">
         <v>113.3</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
+      <c r="J5">
+        <f t="shared" si="2"/>
         <v>386.45</v>
       </c>
-      <c r="J28">
+      <c r="L5">
         <v>9.92</v>
       </c>
-      <c r="K28">
+      <c r="M5">
         <v>63.6</v>
       </c>
-      <c r="L28">
+      <c r="N5">
         <v>121.9</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
+      <c r="O5">
+        <f t="shared" si="3"/>
         <v>395.04999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>65.8</v>
       </c>
-      <c r="B29">
+      <c r="B6">
         <v>34.4</v>
       </c>
-      <c r="C29">
+      <c r="C6">
         <v>105.2</v>
       </c>
-      <c r="D29">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>378.34999999999997</v>
       </c>
-      <c r="E29">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.6430553720100439E-3</v>
+      </c>
+      <c r="G6">
         <v>30.01</v>
       </c>
-      <c r="F29">
+      <c r="H6">
         <v>83.6</v>
       </c>
-      <c r="G29">
+      <c r="I6">
         <v>121.7</v>
       </c>
-      <c r="H29">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>394.84999999999997</v>
+      </c>
+      <c r="L6">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="M6">
+        <v>143.5</v>
+      </c>
+      <c r="N6">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>407.34999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>65.8</v>
+      </c>
+      <c r="B7">
+        <v>38.5</v>
+      </c>
+      <c r="C7">
+        <v>107.1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>380.25</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>394.84999999999997</v>
-      </c>
-      <c r="J29">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="K29">
-        <v>143.5</v>
-      </c>
-      <c r="L29">
+        <v>2.6298487836949377E-3</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>181.3</v>
+      </c>
+      <c r="I7">
         <v>134.19999999999999</v>
       </c>
-      <c r="M29">
+      <c r="J7">
         <f t="shared" si="2"/>
         <v>407.34999999999997</v>
       </c>
+      <c r="L7" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="M7" s="2">
+        <f>9.5*1000/F2</f>
+        <v>1.8924302788844622E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="3"/>
+        <v>296.14999999999998</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>65.8</v>
       </c>
-      <c r="B30">
-        <v>38.5</v>
-      </c>
-      <c r="C30">
-        <v>107.1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>380.25</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>181.3</v>
-      </c>
-      <c r="G30">
-        <v>134.19999999999999</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>407.34999999999997</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>65.8</v>
-      </c>
-      <c r="B31">
+      <c r="B8">
         <v>57.8</v>
       </c>
-      <c r="C31">
+      <c r="C8">
         <v>112.9</v>
       </c>
-      <c r="D31">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>386.04999999999995</v>
       </c>
-      <c r="H31">
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="M31">
+        <v>2.5903380391141045E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>28.57</v>
+      </c>
+      <c r="H8" s="2">
+        <f>21.8/1000/F2*1000000</f>
+        <v>4.342629482071713E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
+        <v>296.04999999999995</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2">
+        <f>24.35*1000/F2</f>
+        <v>4.8505976095617527E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="3"/>
+        <v>305.54999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>65.8</v>
       </c>
-      <c r="B32">
+      <c r="B9">
         <v>65.2</v>
       </c>
-      <c r="C32">
+      <c r="C9">
         <v>115</v>
       </c>
-      <c r="D32">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>388.15</v>
       </c>
-      <c r="H32">
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="M32">
+        <v>2.5763235862424324E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>29.78</v>
+      </c>
+      <c r="H9" s="2">
+        <f>51.5*1000/F2</f>
+        <v>0.10258964143426295</v>
+      </c>
+      <c r="I9" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
+        <v>305.54999999999995</v>
+      </c>
+      <c r="L9" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="M9" s="2">
+        <f>51.3*1000/F2</f>
+        <v>0.10219123505976095</v>
+      </c>
+      <c r="N9" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="3"/>
+        <v>313.75</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>65.8</v>
       </c>
-      <c r="B33">
+      <c r="B10">
         <v>99.2</v>
       </c>
-      <c r="C33">
+      <c r="C10">
         <v>121.4</v>
       </c>
-      <c r="D33">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>394.54999999999995</v>
       </c>
-      <c r="H33">
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="M33">
+        <v>2.5345330122924854E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="H10" s="2">
+        <f>104.6*1000/F2</f>
+        <v>0.20836653386454182</v>
+      </c>
+      <c r="I10" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
+        <v>313.64999999999998</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="M10" s="2">
+        <f>84.2*1000/F2</f>
+        <v>0.16772908366533865</v>
+      </c>
+      <c r="N10" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="3"/>
+        <v>319.95</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>65.8</v>
       </c>
-      <c r="B34">
+      <c r="B11">
         <v>114.2</v>
       </c>
-      <c r="C34">
+      <c r="C11">
         <v>123.8</v>
       </c>
-      <c r="D34">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>396.95</v>
       </c>
-      <c r="H34">
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="M34">
+        <v>2.5192089683839275E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="H11" s="2">
+        <f>172.4*1000/F2</f>
+        <v>0.34342629482071713</v>
+      </c>
+      <c r="I11" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
+        <v>319.95</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="3"/>
+        <v>328.25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>65.8</v>
       </c>
-      <c r="B35">
+      <c r="B12">
         <v>214</v>
       </c>
-      <c r="C35">
+      <c r="C12">
         <v>134.19999999999999</v>
       </c>
-      <c r="D35">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>407.34999999999997</v>
       </c>
-      <c r="H35">
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="M35">
+        <v>2.4548913710568309E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30.24</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
+        <v>328.25</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N12" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="3"/>
+        <v>336.54999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>65.8</v>
       </c>
-      <c r="B36">
+      <c r="B13">
         <v>216.3</v>
       </c>
-      <c r="C36">
+      <c r="C13">
         <v>134.4</v>
       </c>
-      <c r="D36">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>407.54999999999995</v>
       </c>
-      <c r="H36">
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="M36">
+        <v>2.4536866642129803E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>29.93</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
-        <v>273.14999999999998</v>
+        <v>336.45</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>9.94</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="3"/>
+        <v>344.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="B14" s="2">
+        <f>29.3/1000/F2*1000000</f>
+        <v>5.8366533864541832E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>296.04999999999995</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.3778078027360248E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>30.12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>344.95</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>9.98</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="3"/>
+        <v>353.34999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="B15" s="2">
+        <f>29.4*1000/F2</f>
+        <v>5.8565737051792827E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>296.14999999999998</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.3766672294445383E-3</v>
+      </c>
+      <c r="G15">
+        <v>30.01</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>353.34999999999997</v>
+      </c>
+      <c r="L15" s="3">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="N15" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>358.34999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="B16" s="2">
+        <f>67.5*1000/F2</f>
+        <v>0.1344621513944223</v>
+      </c>
+      <c r="C16" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>305.54999999999995</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3.2727867779414176E-3</v>
+      </c>
+      <c r="G16">
+        <v>29.86</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>358.34999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="B17" s="2">
+        <f>67.8*1000/F2</f>
+        <v>0.13505976095617531</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>305.54999999999995</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3.2727867779414176E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <f>134.4*1000/F2</f>
+        <v>0.26772908366533865</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>313.54999999999995</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3.1892840057407119E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2">
+        <f>137.8*1000/F2</f>
+        <v>0.27450199203187253</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>313.84999999999997</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3.1862354628007013E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="B20" s="2">
+        <f>227*1000/F2</f>
+        <v>0.45219123505976094</v>
+      </c>
+      <c r="C20" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>319.84999999999997</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3.1264655307175243E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46.7</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>319.84999999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>3.1264655307175243E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>328.15</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>3.0473868657626088E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>328.25</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>3.0464584920030465E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>336.45</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.972209838014564E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>336.65</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.9704440813901681E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>344.84999999999997</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.8998115122517041E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>345.04999999999995</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2.8981307056948273E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>353.25</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2.8308563340410475E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>353.34999999999997</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2.8300551860761286E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C30" s="3">
+        <v>85.15</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>358.29999999999995</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>2.7909572983533357E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Data/Diode Is measurement.xlsx
+++ b/Experimental Data/Diode Is measurement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Alabama\baker Research\Void-Study\Experimental Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab\Nathan\Void-Study\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DB146-433D-4FF5-B31F-1742AB1F8B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D16F21-4134-4252-9424-AF4528C60C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{D4FCBA09-BB64-41A5-B259-4D3C7B13D48E}"/>
+    <workbookView xWindow="10995" yWindow="3345" windowWidth="38700" windowHeight="15345" xr2:uid="{D4FCBA09-BB64-41A5-B259-4D3C7B13D48E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3367,28 +3365,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9BAC6B-737D-4814-BA59-C24AE2A987FC}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>65.8</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>366.75</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3">
         <v>65.8</v>
       </c>
@@ -3492,11 +3490,11 @@
         <v>93.2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D30" si="0">C3+273.15</f>
+        <f t="shared" ref="D3:D20" si="0">C3+273.15</f>
         <v>366.34999999999997</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E30" si="1">1/D3</f>
+        <f t="shared" ref="E3:E20" si="1">1/D3</f>
         <v>2.729630135116692E-3</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3529,7 +3527,7 @@
         <v>372.15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>65.8</v>
       </c>
@@ -3574,7 +3572,7 @@
         <v>378.65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>65.8</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>395.04999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>65.8</v>
       </c>
@@ -3664,7 +3662,7 @@
         <v>407.34999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>65.8</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>296.14999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>65.8</v>
       </c>
@@ -3757,7 +3755,7 @@
         <v>305.54999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>65.8</v>
       </c>
@@ -3804,7 +3802,7 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>65.8</v>
       </c>
@@ -3851,7 +3849,7 @@
         <v>319.95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>65.8</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>328.25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>65.8</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>336.54999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>65.8</v>
       </c>
@@ -3988,7 +3986,7 @@
         <v>344.95</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>63.1</v>
       </c>
@@ -4035,7 +4033,7 @@
         <v>353.34999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>63.1</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>358.34999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>63.1</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>358.34999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>63.1</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>3.2727867779414176E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>63</v>
       </c>
@@ -4154,7 +4152,7 @@
         <v>3.1892840057407119E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>63</v>
       </c>
@@ -4174,7 +4172,7 @@
         <v>3.1862354628007013E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>65.8</v>
       </c>
@@ -4194,7 +4192,7 @@
         <v>3.1264655307175243E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>65.8</v>
       </c>
@@ -4205,15 +4203,15 @@
         <v>46.7</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D21:D30" si="4">C21+273.15</f>
         <v>319.84999999999997</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E21:E30" si="5">1/D21</f>
         <v>3.1264655307175243E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>65.8</v>
       </c>
@@ -4224,15 +4222,15 @@
         <v>55</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>328.15</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.0473868657626088E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>65.8</v>
       </c>
@@ -4243,15 +4241,15 @@
         <v>55.1</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>328.25</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.0464584920030465E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>65.8</v>
       </c>
@@ -4262,15 +4260,15 @@
         <v>63.3</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>336.45</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.972209838014564E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>65.8</v>
       </c>
@@ -4281,15 +4279,15 @@
         <v>63.5</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>336.65</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.9704440813901681E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>65.8</v>
       </c>
@@ -4300,15 +4298,15 @@
         <v>71.7</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>344.84999999999997</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.8998115122517041E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>65.8</v>
       </c>
@@ -4319,15 +4317,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>345.04999999999995</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.8981307056948273E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>65.8</v>
       </c>
@@ -4338,15 +4336,15 @@
         <v>80.099999999999994</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>353.25</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.8308563340410475E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>65.8</v>
       </c>
@@ -4357,15 +4355,15 @@
         <v>80.2</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>353.34999999999997</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.8300551860761286E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>65.8</v>
       </c>
@@ -4376,11 +4374,11 @@
         <v>85.15</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>358.29999999999995</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.7909572983533357E-3</v>
       </c>
     </row>
